--- a/plantillas/FORMATO_AWB_SIN_FONDO.xlsx
+++ b/plantillas/FORMATO_AWB_SIN_FONDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\api-backend-general-v1\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04D30F3-3781-4B27-A095-A9AAE7872003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B4DD4D-5F26-4420-A39D-D635B48809D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="971" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>N.V.D.</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">          CARACAS, 04 DE ABRIL DE 2024</t>
-  </si>
-  <si>
-    <t>CANDY GARCIA</t>
   </si>
   <si>
     <r>
@@ -607,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -736,7 +733,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="32">
         <v>45751</v>
@@ -790,7 +787,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="25"/>
@@ -941,9 +938,7 @@
       <c r="E66" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H67"/>
@@ -1103,7 +1098,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
